--- a/分析.xlsx
+++ b/分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>当前日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国石油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东方财富</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,14 @@
   </si>
   <si>
     <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油(A股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油(H股)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +91,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,7 +134,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -500,18 +504,18 @@
         <v>17.5</v>
       </c>
       <c r="F2" s="3">
-        <f>(B2-D2)/365</f>
+        <f t="shared" ref="F2:F8" si="0">(B2-D2)/365</f>
         <v>26.336986301369862</v>
       </c>
       <c r="G2" s="4">
-        <f>C2/E2</f>
+        <f t="shared" ref="G2:G8" si="1">C2/E2</f>
         <v>408.53142857142859</v>
       </c>
       <c r="H2" s="2">
         <v>5000</v>
       </c>
       <c r="I2" s="2">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I8" si="2">H2*G2</f>
         <v>2042657.142857143</v>
       </c>
     </row>
@@ -532,24 +536,24 @@
         <v>34.51</v>
       </c>
       <c r="F3" s="3">
-        <f>(B3-D3)/365</f>
+        <f t="shared" si="0"/>
         <v>21.575342465753426</v>
       </c>
       <c r="G3" s="4">
-        <f>C3/E3</f>
+        <f t="shared" si="1"/>
         <v>279.38626485076793</v>
       </c>
       <c r="H3" s="2">
         <v>10000</v>
       </c>
       <c r="I3" s="2">
-        <f>H3*G3</f>
+        <f t="shared" si="2"/>
         <v>2793862.6485076793</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>45009</v>
@@ -564,83 +568,83 @@
         <v>48.6</v>
       </c>
       <c r="F4" s="3">
-        <f>(B4-D4)/365</f>
+        <f t="shared" si="0"/>
         <v>15.323287671232876</v>
       </c>
       <c r="G4" s="4">
-        <f>C4/E4</f>
+        <f t="shared" si="1"/>
         <v>0.18662551440329217</v>
       </c>
       <c r="H4" s="2">
         <v>50000</v>
       </c>
       <c r="I4" s="2">
-        <f>H4*G4</f>
+        <f t="shared" si="2"/>
         <v>9331.2757201646091</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>45009</v>
       </c>
       <c r="C5" s="2">
-        <v>1328.66</v>
+        <v>9.9890000000000008</v>
       </c>
       <c r="D5" s="1">
-        <v>40268</v>
+        <v>36624</v>
       </c>
       <c r="E5" s="2">
-        <v>61</v>
+        <v>1.28</v>
       </c>
       <c r="F5" s="3">
-        <f>(B5-D5)/365</f>
-        <v>12.989041095890411</v>
+        <f t="shared" ref="F5" si="3">(B5-D5)/365</f>
+        <v>22.972602739726028</v>
       </c>
       <c r="G5" s="4">
-        <f>C5/E5</f>
-        <v>21.781311475409836</v>
+        <f t="shared" ref="G5" si="4">C5/E5</f>
+        <v>7.8039062500000007</v>
       </c>
       <c r="H5" s="2">
         <v>50000</v>
       </c>
       <c r="I5" s="2">
-        <f>H5*G5</f>
-        <v>1089065.5737704919</v>
+        <f t="shared" ref="I5" si="5">H5*G5</f>
+        <v>390195.31250000006</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>45009</v>
       </c>
       <c r="C6" s="2">
-        <v>442</v>
+        <v>1328.66</v>
       </c>
       <c r="D6" s="1">
-        <v>38016</v>
+        <v>40268</v>
       </c>
       <c r="E6" s="2">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F6" s="3">
-        <f>(B6-D6)/365</f>
-        <v>19.158904109589042</v>
+        <f t="shared" si="0"/>
+        <v>12.989041095890411</v>
       </c>
       <c r="G6" s="4">
-        <f>C6/E6</f>
-        <v>3.9819819819819822</v>
+        <f t="shared" si="1"/>
+        <v>21.781311475409836</v>
       </c>
       <c r="H6" s="2">
         <v>50000</v>
       </c>
       <c r="I6" s="2">
-        <f>H6*G6</f>
-        <v>199099.09909909911</v>
+        <f t="shared" si="2"/>
+        <v>1089065.5737704919</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,33 +655,65 @@
         <v>45009</v>
       </c>
       <c r="C7" s="2">
-        <v>2000000</v>
+        <v>442</v>
       </c>
       <c r="D7" s="1">
-        <v>36707</v>
+        <v>38016</v>
       </c>
       <c r="E7" s="2">
-        <v>100000</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3">
-        <f>(B7-D7)/365</f>
-        <v>22.745205479452054</v>
+        <f t="shared" si="0"/>
+        <v>19.158904109589042</v>
       </c>
       <c r="G7" s="4">
-        <f>C7/E7</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>3.9819819819819822</v>
       </c>
       <c r="H7" s="2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I7" s="2">
-        <f>H7*G7</f>
-        <v>2000000</v>
+        <f t="shared" si="2"/>
+        <v>199099.09909909911</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36707</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>22.745205479452054</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/分析.xlsx
+++ b/分析.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7859DCDA-19A1-4C15-9215-61529CB508B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="价值观" sheetId="2" r:id="rId1"/>
+    <sheet name="长时间资产对比" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>上市日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>假设成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设市值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后复权价(收盘)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,28 +62,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国石油(A股)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国石油(H股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由的市场经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由 市场 法制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由是基础，法制是规矩，他们都为市场服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治主张 偏右 资本主义 中国社会主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技是第一生产力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类社会的进步主要是科技推动的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国是自由市场的代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股涨跌停板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国是社会主义的代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20实际末走上实质的市场经济改革，经济起飞，但是还残留计划经济的影子，有很大增长潜力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国是自由市场经济实践最佳者，但21实际上半叶开始逐渐偏左，并针对中国制裁；科技和创新的乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买的人多就会涨，卖的人多就会跌，涨跌停板是A股特有的极端情况，涨停板买不进，跌停板卖不出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +162,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -129,12 +197,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -153,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,6 +304,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,287 +548,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B222FFE-A4BB-4994-8120-50DF8D5ECFF5}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>45009</v>
       </c>
-      <c r="C2" s="2">
-        <v>7149.3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>35396</v>
-      </c>
-      <c r="E2" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:F8" si="0">(B2-D2)/365</f>
-        <v>26.336986301369862</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G8" si="1">C2/E2</f>
-        <v>408.53142857142859</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I8" si="2">H2*G2</f>
-        <v>2042657.142857143</v>
-      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45009</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9641.6200000000008</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37134</v>
-      </c>
-      <c r="E3" s="2">
-        <v>34.51</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>21.575342465753426</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="1"/>
-        <v>279.38626485076793</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="2"/>
-        <v>2793862.6485076793</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45009</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.07</v>
-      </c>
-      <c r="D4" s="1">
-        <v>39416</v>
-      </c>
-      <c r="E4" s="2">
-        <v>48.6</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>15.323287671232876</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18662551440329217</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="2"/>
-        <v>9331.2757201646091</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7149.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35396</v>
+      </c>
+      <c r="D4" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="E4" s="3">
+        <f>(B2-C4)/365</f>
+        <v>26.336986301369862</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F10" si="0">B4/D4</f>
+        <v>408.53142857142859</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H10" si="1">G4*F4</f>
+        <v>2042657.142857143</v>
+      </c>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45009</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.9890000000000008</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36624</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5" si="3">(B5-D5)/365</f>
-        <v>22.972602739726028</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5" si="4">C5/E5</f>
-        <v>7.8039062500000007</v>
-      </c>
-      <c r="H5" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5" si="5">H5*G5</f>
-        <v>390195.31250000006</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>9641.6200000000008</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37134</v>
+      </c>
+      <c r="D5" s="9">
+        <v>34.51</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(B2-C5)/365</f>
+        <v>21.575342465753426</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>279.38626485076793</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>2793862.6485076793</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>45009</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1328.66</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40268</v>
-      </c>
-      <c r="E6" s="2">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6" s="9">
+        <v>9.07</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39416</v>
+      </c>
+      <c r="D6" s="9">
+        <v>48.6</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(B2-C6)/365</f>
+        <v>15.323287671232876</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>12.989041095890411</v>
-      </c>
-      <c r="G6" s="4">
+        <v>0.18662551440329217</v>
+      </c>
+      <c r="G6" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>21.781311475409836</v>
-      </c>
-      <c r="H6" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>1089065.5737704919</v>
-      </c>
+        <v>9331.2757201646091</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45009</v>
-      </c>
-      <c r="C7" s="2">
-        <v>442</v>
-      </c>
-      <c r="D7" s="1">
-        <v>38016</v>
-      </c>
-      <c r="E7" s="2">
-        <v>111</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>19.158904109589042</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>3.9819819819819822</v>
-      </c>
-      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>9.9890000000000008</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36624</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(B2-C7)/365</f>
+        <v>22.972602739726028</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7" si="2">B7/D7</f>
+        <v>7.8039062500000007</v>
+      </c>
+      <c r="G7" s="9">
         <v>50000</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>199099.09909909911</v>
-      </c>
+      <c r="H7" s="9">
+        <f t="shared" ref="H7" si="3">G7*F7</f>
+        <v>390195.31250000006</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45009</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>36707</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1328.66</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40268</v>
+      </c>
+      <c r="D8" s="9">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3">
+        <f>(B2-C8)/365</f>
+        <v>12.989041095890411</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>22.745205479452054</v>
-      </c>
-      <c r="G8" s="4">
+        <v>21.781311475409836</v>
+      </c>
+      <c r="G8" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>2000000</v>
-      </c>
+        <v>1089065.5737704919</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>442</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38016</v>
+      </c>
+      <c r="D9" s="9">
+        <v>111</v>
+      </c>
+      <c r="E9" s="3">
+        <f>(B2-C9)/365</f>
+        <v>19.158904109589042</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9819819819819822</v>
+      </c>
+      <c r="G9" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>199099.09909909911</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36707</v>
+      </c>
+      <c r="D10" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(B2-C10)/365</f>
+        <v>22.745205479452054</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="I10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>